--- a/biology/Zoologie/Eusomus/Eusomus.xlsx
+++ b/biology/Zoologie/Eusomus/Eusomus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eusomus est un genre de coléoptères de la sous-famille des Entiminae (famille des Curculionidae).
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre de petits charançons possèdent des pattes fines et longues et des antennes très longues. Les élytres se terminent en formant une pointe à l'apex. Les espèces du genre Eusomus sont recouvertes d'écailles vertes ou dorées et de minuscules poils hérissés.
 </t>
@@ -542,9 +556,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les larves polyphages vivent dans la terre. L'imago est également polyphage, mais la plupart de ces charançons adultes préfèrent se nourrir d’Artemisia absinthium[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les larves polyphages vivent dans la terre. L'imago est également polyphage, mais la plupart de ces charançons adultes préfèrent se nourrir d’Artemisia absinthium.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (1er octobre 2023)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (1er octobre 2023) :
 Eusomus affinis Lucas, 1849
 Eusomus angusticollis Lucas, 1854
 Eusomus koenigi Desbrochers des Loges, 1904
@@ -612,10 +630,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Eusomus Germar, 1823[2].
-Eusomus a pour synonymes[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Eusomus Germar, 1823.
+Eusomus a pour synonymes :
 Chrysoloma Dejean, 1821
 Eusomatus Dejean, 1821
 Eusomatus Sturm, 1826
